--- a/biology/Médecine/Pandémie_de_Covid-19_à_Malte/Pandémie_de_Covid-19_à_Malte.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_à_Malte/Pandémie_de_Covid-19_à_Malte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Malte</t>
+          <t>Pandémie_de_Covid-19_à_Malte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 à Malte démarre officiellement le 7 mars 2020. À la date du 17 septembre 2022, le bilan est de 803 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Malte</t>
+          <t>Pandémie_de_Covid-19_à_Malte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois premiers cas de Covid-19 à Malte sont signalés le 7 mars 2020. Il s'agit d'une famille italienne composée d'une fille de 12 ans et de ses parents, arrivés à Malte le 3 mars après des vacances dans le Trentin. La jeune fille a été le premier cas, ses parents ayant été testés positifs à la Covid-19 plus tard dans la journée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois premiers cas de Covid-19 à Malte sont signalés le 7 mars 2020. Il s'agit d'une famille italienne composée d'une fille de 12 ans et de ses parents, arrivés à Malte le 3 mars après des vacances dans le Trentin. La jeune fille a été le premier cas, ses parents ayant été testés positifs à la Covid-19 plus tard dans la journée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Malte</t>
+          <t>Pandémie_de_Covid-19_à_Malte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
